--- a/scripts/data_v2_results.xlsx
+++ b/scripts/data_v2_results.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -428,6 +428,9 @@
       <c r="O1" t="str">
         <v>longitude</v>
       </c>
+      <c r="P1" t="str">
+        <v>position</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -516,10 +519,10 @@
         <v>Entreprise</v>
       </c>
       <c r="N3">
-        <v>50.619205</v>
+        <v>50.608265</v>
       </c>
       <c r="O3">
-        <v>3.143694</v>
+        <v>3.16046</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
@@ -698,14 +701,14 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -759,6 +762,9 @@
       <c r="P1" t="str">
         <v>longitude</v>
       </c>
+      <c r="Q1" t="str">
+        <v>position</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -854,10 +860,10 @@
         <v>Labo</v>
       </c>
       <c r="O3">
-        <v>50.513812</v>
+        <v>50.518746</v>
       </c>
       <c r="P3">
-        <v>2.658348</v>
+        <v>2.645622</v>
       </c>
     </row>
     <row r="4">
@@ -909,14 +915,14 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -982,6 +988,9 @@
       <c r="T1" t="str">
         <v>longitude</v>
       </c>
+      <c r="U1" t="str">
+        <v>position</v>
+      </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
@@ -1157,15 +1166,15 @@
         <v>Formation</v>
       </c>
       <c r="S4">
-        <v>50.93243</v>
+        <v>50.934099</v>
       </c>
       <c r="T4">
-        <v>1.820529</v>
+        <v>1.808739</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/scripts/data_v2_results.xlsx
+++ b/scripts/data_v2_results.xlsx
@@ -433,9 +433,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Ferroviaire</v>
-      </c>
       <c r="B2" t="str">
         <v>ALSTOM</v>
       </c>
@@ -480,9 +477,6 @@
       </c>
     </row>
     <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>Automobile, Ferroviaire, Aéronautique</v>
-      </c>
       <c r="B3" t="str">
         <v>ALTEN</v>
       </c>
@@ -526,9 +520,6 @@
       </c>
     </row>
     <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>Automobile, Ferroviaire, Aéronautique</v>
-      </c>
       <c r="B4" t="str">
         <v>ALTRAN</v>
       </c>
@@ -574,9 +565,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve">Automobile </v>
-      </c>
       <c r="B5" t="str">
         <v>ADES METROLOGY</v>
       </c>
@@ -618,9 +606,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve">Automobile </v>
-      </c>
       <c r="B6" t="str">
         <v>ABYLSEN SIGMA NORD</v>
       </c>
@@ -659,9 +644,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v xml:space="preserve">Automobile </v>
-      </c>
       <c r="B7" t="str">
         <v>AGRATI</v>
       </c>
@@ -767,9 +749,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Automobile, Ferroviaire, Aéronautique</v>
-      </c>
       <c r="B2" t="str">
         <v>LAMIH</v>
       </c>
@@ -817,9 +796,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>Automobile, Ferroviaire, Aéronautique</v>
-      </c>
       <c r="B3" t="str">
         <v>LGI2A</v>
       </c>
@@ -860,16 +836,13 @@
         <v>Labo</v>
       </c>
       <c r="O3">
-        <v>50.518746</v>
+        <v>50.513812</v>
       </c>
       <c r="P3">
-        <v>2.645622</v>
+        <v>2.658348</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>Ferroviaire</v>
-      </c>
       <c r="C4" t="str">
         <v>LaMcube</v>
       </c>
@@ -993,9 +966,6 @@
       </c>
     </row>
     <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>Automobile, Ferroviaire, Aéronautique</v>
-      </c>
       <c r="B2" t="str">
         <v>EMD</v>
       </c>
@@ -1056,9 +1026,6 @@
       </c>
     </row>
     <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>Automobile, Ferroviaire, Aéronautique</v>
-      </c>
       <c r="B3" t="str">
         <v>Polytech'Lille</v>
       </c>
@@ -1116,9 +1083,6 @@
       </c>
     </row>
     <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>Ferroviaire</v>
-      </c>
       <c r="B4" t="str">
         <v>CIFFCO</v>
       </c>
@@ -1166,10 +1130,10 @@
         <v>Formation</v>
       </c>
       <c r="S4">
-        <v>50.934099</v>
+        <v>50.93243</v>
       </c>
       <c r="T4">
-        <v>1.808739</v>
+        <v>1.820529</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data_v2_results.xlsx
+++ b/scripts/data_v2_results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <sheets>
     <sheet name="ENTREPRISES" sheetId="1" r:id="rId1"/>
-    <sheet name="LABOS" sheetId="2" r:id="rId2"/>
+    <sheet name="LABORATOIRES" sheetId="2" r:id="rId2"/>
     <sheet name="FORMATIONS" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -420,16 +420,13 @@
         <v>logo</v>
       </c>
       <c r="M1" t="str">
+        <v>latitude</v>
+      </c>
+      <c r="N1" t="str">
+        <v>longitude</v>
+      </c>
+      <c r="O1" t="str">
         <v>type</v>
-      </c>
-      <c r="N1" t="str">
-        <v>latitude</v>
-      </c>
-      <c r="O1" t="str">
-        <v>longitude</v>
-      </c>
-      <c r="P1" t="str">
-        <v>position</v>
       </c>
     </row>
     <row r="2">
@@ -466,14 +463,14 @@
       <c r="L2" t="str">
         <v>alstom-logo-png-5.png</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2">
+        <v>50.382017</v>
+      </c>
+      <c r="N2">
+        <v>3.476516</v>
+      </c>
+      <c r="O2" t="str">
         <v>Entreprise</v>
-      </c>
-      <c r="N2">
-        <v>50.382017</v>
-      </c>
-      <c r="O2">
-        <v>3.476516</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
@@ -509,14 +506,14 @@
       <c r="K3" t="str">
         <v>shutterstock_163822697.jpg</v>
       </c>
-      <c r="M3" t="str">
+      <c r="M3">
+        <v>50.608265</v>
+      </c>
+      <c r="N3">
+        <v>3.16046</v>
+      </c>
+      <c r="O3" t="str">
         <v>Entreprise</v>
-      </c>
-      <c r="N3">
-        <v>50.608265</v>
-      </c>
-      <c r="O3">
-        <v>3.16046</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
@@ -554,14 +551,14 @@
       <c r="L4" t="str">
         <v>RVB_ALTRAN_HD.png</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4">
+        <v>50.366328</v>
+      </c>
+      <c r="N4">
+        <v>3.529479</v>
+      </c>
+      <c r="O4" t="str">
         <v>Entreprise</v>
-      </c>
-      <c r="N4">
-        <v>50.366328</v>
-      </c>
-      <c r="O4">
-        <v>3.529479</v>
       </c>
     </row>
     <row r="5">
@@ -595,14 +592,14 @@
       <c r="L5" t="str">
         <v>ADES_Logo ADES - rev 02.jpg</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M5">
+        <v>50.284784</v>
+      </c>
+      <c r="N5">
+        <v>3.962909</v>
+      </c>
+      <c r="O5" t="str">
         <v>Entreprise</v>
-      </c>
-      <c r="N5">
-        <v>50.284784</v>
-      </c>
-      <c r="O5">
-        <v>3.962909</v>
       </c>
     </row>
     <row r="6">
@@ -633,14 +630,14 @@
       <c r="L6" t="str">
         <v>Abylsen logo_CMJN_Baseline bleueOK.eps</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6">
+        <v>50.640852</v>
+      </c>
+      <c r="N6">
+        <v>3.018214</v>
+      </c>
+      <c r="O6" t="str">
         <v>Entreprise</v>
-      </c>
-      <c r="N6">
-        <v>50.640852</v>
-      </c>
-      <c r="O6">
-        <v>3.018214</v>
       </c>
     </row>
     <row r="7">
@@ -671,26 +668,26 @@
       <c r="L7" t="str">
         <v>AGRATI_Logo_AGRATI_FRANCE.jpg</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7">
+        <v>50.457245</v>
+      </c>
+      <c r="N7">
+        <v>3.571979</v>
+      </c>
+      <c r="O7" t="str">
         <v>Entreprise</v>
-      </c>
-      <c r="N7">
-        <v>50.457245</v>
-      </c>
-      <c r="O7">
-        <v>3.571979</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -736,16 +733,13 @@
         <v>logo</v>
       </c>
       <c r="N1" t="str">
+        <v>latitude</v>
+      </c>
+      <c r="O1" t="str">
+        <v>longitude</v>
+      </c>
+      <c r="P1" t="str">
         <v>type</v>
-      </c>
-      <c r="O1" t="str">
-        <v>latitude</v>
-      </c>
-      <c r="P1" t="str">
-        <v>longitude</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>position</v>
       </c>
     </row>
     <row r="2">
@@ -785,14 +779,14 @@
       <c r="M2" t="str">
         <v>lamih-2015-308px.png</v>
       </c>
-      <c r="N2" t="str">
-        <v>Labo</v>
+      <c r="N2">
+        <v>50.319384</v>
       </c>
       <c r="O2">
-        <v>50.319384</v>
-      </c>
-      <c r="P2">
         <v>3.509646</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Laboratoire</v>
       </c>
     </row>
     <row r="3">
@@ -832,14 +826,14 @@
       <c r="M3" t="str">
         <v>lgi2a_logo.jpeg</v>
       </c>
-      <c r="N3" t="str">
-        <v>Labo</v>
+      <c r="N3">
+        <v>50.513812</v>
       </c>
       <c r="O3">
-        <v>50.513812</v>
-      </c>
-      <c r="P3">
         <v>2.658348</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Laboratoire</v>
       </c>
     </row>
     <row r="4">
@@ -876,26 +870,26 @@
       <c r="M4" t="str">
         <v>lamcublogo.png</v>
       </c>
-      <c r="N4" t="str">
-        <v>Labo</v>
+      <c r="N4">
+        <v>50.606301</v>
       </c>
       <c r="O4">
-        <v>50.606301</v>
-      </c>
-      <c r="P4">
         <v>3.135407</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Laboratoire</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -953,16 +947,13 @@
         <v>logo</v>
       </c>
       <c r="R1" t="str">
+        <v>latitude</v>
+      </c>
+      <c r="S1" t="str">
+        <v>longitude</v>
+      </c>
+      <c r="T1" t="str">
         <v>type</v>
-      </c>
-      <c r="S1" t="str">
-        <v>latitude</v>
-      </c>
-      <c r="T1" t="str">
-        <v>longitude</v>
-      </c>
-      <c r="U1" t="str">
-        <v>position</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
@@ -1015,14 +1006,14 @@
       <c r="Q2" t="str">
         <v>IMT_Lille_Douai_Logo_WEB.png</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2">
+        <v>50.374027</v>
+      </c>
+      <c r="S2">
+        <v>3.067359</v>
+      </c>
+      <c r="T2" t="str">
         <v>Formation</v>
-      </c>
-      <c r="S2">
-        <v>50.374027</v>
-      </c>
-      <c r="T2">
-        <v>3.067359</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
@@ -1072,14 +1063,14 @@
       <c r="Q3" t="str">
         <v>Logo_Reseau_Polytech.svg.png</v>
       </c>
-      <c r="R3" t="str">
+      <c r="R3">
+        <v>50.606301</v>
+      </c>
+      <c r="S3">
+        <v>3.135407</v>
+      </c>
+      <c r="T3" t="str">
         <v>Formation</v>
-      </c>
-      <c r="S3">
-        <v>50.606301</v>
-      </c>
-      <c r="T3">
-        <v>3.135407</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
@@ -1126,19 +1117,19 @@
       <c r="Q4" t="str">
         <v>ciffco.jpg</v>
       </c>
-      <c r="R4" t="str">
+      <c r="R4">
+        <v>50.93243</v>
+      </c>
+      <c r="S4">
+        <v>1.820529</v>
+      </c>
+      <c r="T4" t="str">
         <v>Formation</v>
-      </c>
-      <c r="S4">
-        <v>50.93243</v>
-      </c>
-      <c r="T4">
-        <v>1.820529</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T4"/>
   </ignoredErrors>
 </worksheet>
 </file>